--- a/src/test/java/Table/Tables.xlsx
+++ b/src/test/java/Table/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HSN/IdeaProjects/SQL/hsnakd_sql/src/test/java/Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A783685-7E73-FB4C-98B5-672F7FC4B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904726A3-B538-B548-AFF5-7D915E1F9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{EF18170A-3048-744C-8854-7D8D6088D5CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="431">
   <si>
     <t>Alice</t>
   </si>
@@ -1248,6 +1248,87 @@
   </si>
   <si>
     <t>countryname</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Middle East and Africa</t>
+  </si>
+  <si>
+    <t>region_id</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Dystopian</t>
+  </si>
+  <si>
+    <t>Pride and Prejudice</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>The Great Gatsby</t>
+  </si>
+  <si>
+    <t>F. Scott Fitzgerald</t>
+  </si>
+  <si>
+    <t>The Catcher in the Rye</t>
+  </si>
+  <si>
+    <t>J.D. Salinger</t>
+  </si>
+  <si>
+    <t>Coming-of-Age</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>publication_year</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>genre</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1328,11 +1409,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1367,6 +1466,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346B6BE-3297-364C-B0A4-B6EA0F07AF41}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1701,11 +1818,11 @@
     <col min="9" max="9" width="18.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="6"/>
     <col min="11" max="11" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="6"/>
-    <col min="16" max="16" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -1717,7 +1834,7 @@
     <col min="25" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>106</v>
       </c>
@@ -1735,20 +1852,18 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="W1" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="X1" s="13"/>
-    </row>
-    <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.2">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+    </row>
+    <row r="2" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>354</v>
       </c>
@@ -1790,32 +1905,18 @@
         <v>370</v>
       </c>
       <c r="O2" s="8"/>
-      <c r="P2" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+    </row>
+    <row r="3" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>100</v>
       </c>
@@ -1853,32 +1954,18 @@
       <c r="N3" s="12">
         <v>1700</v>
       </c>
-      <c r="P3" s="9">
-        <v>1400</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="R3" s="9">
-        <v>26192</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>101</v>
       </c>
@@ -1918,32 +2005,18 @@
       <c r="N4" s="12">
         <v>1800</v>
       </c>
-      <c r="P4" s="9">
-        <v>1500</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="R4" s="9">
-        <v>99236</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>102</v>
       </c>
@@ -1983,26 +2056,18 @@
       <c r="N5" s="12">
         <v>1700</v>
       </c>
-      <c r="P5" s="9">
-        <v>1700</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="R5" s="9">
-        <v>98199</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+    </row>
+    <row r="6" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>103</v>
       </c>
@@ -2042,26 +2107,18 @@
       <c r="N6" s="12">
         <v>2400</v>
       </c>
-      <c r="P6" s="9">
-        <v>1800</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+    </row>
+    <row r="7" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>104</v>
       </c>
@@ -2101,26 +2158,18 @@
       <c r="N7" s="12">
         <v>1500</v>
       </c>
-      <c r="P7" s="9">
-        <v>2100</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="R7" s="9">
-        <v>98199</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>105</v>
       </c>
@@ -2160,26 +2209,18 @@
       <c r="N8" s="12">
         <v>1400</v>
       </c>
-      <c r="P8" s="9">
-        <v>2500</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>106</v>
       </c>
@@ -2219,26 +2260,18 @@
       <c r="N9" s="12">
         <v>2700</v>
       </c>
-      <c r="P9" s="9">
-        <v>2700</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>107</v>
       </c>
@@ -2278,8 +2311,14 @@
       <c r="N10" s="12">
         <v>2500</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>108</v>
       </c>
@@ -2319,8 +2358,14 @@
       <c r="N11" s="12">
         <v>1700</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>109</v>
       </c>
@@ -2361,7 +2406,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>110</v>
       </c>
@@ -2390,7 +2435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>111</v>
       </c>
@@ -2418,8 +2463,16 @@
       <c r="I14" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K14" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>112</v>
       </c>
@@ -2447,8 +2500,26 @@
       <c r="I15" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K15" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>113</v>
       </c>
@@ -2476,8 +2547,26 @@
       <c r="I16" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="9">
+        <v>1400</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="M16" s="9">
+        <v>26192</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>114</v>
       </c>
@@ -2505,8 +2594,26 @@
       <c r="I17" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="9">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="M17" s="9">
+        <v>99236</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>115</v>
       </c>
@@ -2534,8 +2641,26 @@
       <c r="I18" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="9">
+        <v>1700</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="M18" s="9">
+        <v>98199</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>116</v>
       </c>
@@ -2563,8 +2688,26 @@
       <c r="I19" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="9">
+        <v>1800</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>117</v>
       </c>
@@ -2592,8 +2735,26 @@
       <c r="I20" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="9">
+        <v>2100</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="M20" s="9">
+        <v>98199</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>118</v>
       </c>
@@ -2621,8 +2782,26 @@
       <c r="I21" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="9">
+        <v>2500</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>119</v>
       </c>
@@ -2650,8 +2829,26 @@
       <c r="I22" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="9">
+        <v>2700</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>120</v>
       </c>
@@ -2680,7 +2877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>121</v>
       </c>
@@ -2708,8 +2905,16 @@
       <c r="I24" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="N24" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>122</v>
       </c>
@@ -2737,8 +2942,20 @@
       <c r="I25" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>123</v>
       </c>
@@ -2766,8 +2983,20 @@
       <c r="I26" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>124</v>
       </c>
@@ -2795,8 +3024,20 @@
       <c r="I27" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="N27" s="19">
+        <v>2</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>125</v>
       </c>
@@ -2824,8 +3065,14 @@
       <c r="I28" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N28" s="19">
+        <v>3</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>126</v>
       </c>
@@ -2853,8 +3100,18 @@
       <c r="I29" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="19">
+        <v>4</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>127</v>
       </c>
@@ -2882,8 +3139,12 @@
       <c r="I30" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>128</v>
       </c>
@@ -2911,8 +3172,17 @@
       <c r="I31" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="18"/>
+      <c r="K31" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>129</v>
       </c>
@@ -2940,8 +3210,27 @@
       <c r="I32" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="18"/>
+      <c r="K32" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>130</v>
       </c>
@@ -2969,8 +3258,27 @@
       <c r="I33" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="18"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1960</v>
+      </c>
+      <c r="O33" s="20">
+        <v>9780061120084</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>131</v>
       </c>
@@ -2998,8 +3306,27 @@
       <c r="I34" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="18"/>
+      <c r="K34" s="9">
+        <v>2</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1984</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1949</v>
+      </c>
+      <c r="O34" s="20">
+        <v>9780451524935</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>132</v>
       </c>
@@ -3027,8 +3354,27 @@
       <c r="I35" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="18"/>
+      <c r="K35" s="9">
+        <v>3</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1813</v>
+      </c>
+      <c r="O35" s="20">
+        <v>9780141439518</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>133</v>
       </c>
@@ -3056,8 +3402,27 @@
       <c r="I36" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="18"/>
+      <c r="K36" s="9">
+        <v>4</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1925</v>
+      </c>
+      <c r="O36" s="20">
+        <v>9780743273565</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>134</v>
       </c>
@@ -3085,8 +3450,26 @@
       <c r="I37" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="9">
+        <v>5</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1951</v>
+      </c>
+      <c r="O37" s="20">
+        <v>9780316769488</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>135</v>
       </c>
@@ -3115,7 +3498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>136</v>
       </c>
@@ -3144,7 +3527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>137</v>
       </c>
@@ -3173,7 +3556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>138</v>
       </c>
@@ -3202,7 +3585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>139</v>
       </c>
@@ -3231,7 +3614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>140</v>
       </c>
@@ -3260,7 +3643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>141</v>
       </c>
@@ -3289,7 +3672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>142</v>
       </c>
@@ -3318,7 +3701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>143</v>
       </c>
@@ -3347,7 +3730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>144</v>
       </c>
@@ -3376,7 +3759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>145</v>
       </c>
@@ -3599,11 +3982,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="K31:P31"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="K14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
